--- a/220_quantized/Parcels_220_quantized_1176.0.xlsx
+++ b/220_quantized/Parcels_220_quantized_1176.0.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lilia\github\Projet_ter\220_quantized\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE27530B-351B-418B-81CE-5938328BCC3D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC5FC9A9-44E6-408C-A3EE-078336DB42B2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20520" yWindow="2190" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Parcels_220_quantized_1176.0" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1996" uniqueCount="49">
   <si>
     <t>Counter</t>
   </si>
   <si>
     <t>Images</t>
+  </si>
+  <si>
+    <t>20170315,20170404,20170411,</t>
+  </si>
+  <si>
+    <t>20170404,20170411,20170421,</t>
+  </si>
+  <si>
+    <t>20170411,20170421,20170424,</t>
+  </si>
+  <si>
+    <t>20170421,20170424,20170501,</t>
+  </si>
+  <si>
+    <t>20170424,20170501,20170511,</t>
+  </si>
+  <si>
+    <t>20170501,20170511,20170514,</t>
+  </si>
+  <si>
+    <t>20170511,20170514,20170524,</t>
+  </si>
+  <si>
+    <t>20170514,20170524,20170531,</t>
+  </si>
+  <si>
+    <t>20170524,20170531,20170603,</t>
+  </si>
+  <si>
+    <t>20170531,20170603,20170613,</t>
+  </si>
+  <si>
+    <t>20170603,20170613,20170620,</t>
   </si>
   <si>
     <t>20170613,20170620,20170630,</t>
@@ -49,16 +82,31 @@
     <t>20170720,20170723,20170730,</t>
   </si>
   <si>
-    <t>20171120,20171122,20171127,</t>
+    <t>20170723,20170730,20170807,</t>
   </si>
   <si>
-    <t>20171122,20171127,20171207,</t>
+    <t>20170730,20170807,20170814,</t>
   </si>
   <si>
-    <t>20171127,20171207,20171210,</t>
+    <t>20170807,20170814,20170819,</t>
   </si>
   <si>
-    <t>20171207,20171210,20171215,</t>
+    <t>20170814,20170819,20170822,</t>
+  </si>
+  <si>
+    <t>20170819,20170822,20170824,</t>
+  </si>
+  <si>
+    <t>20170822,20170824,20170827,</t>
+  </si>
+  <si>
+    <t>20170824,20170827,20170911,</t>
+  </si>
+  <si>
+    <t>20170827,20170911,20170918,</t>
+  </si>
+  <si>
+    <t>20170911,20170918,20170928,</t>
   </si>
   <si>
     <t>20170104,20170111,20170203,</t>
@@ -73,79 +121,28 @@
     <t>20170210,20170220,20170312,</t>
   </si>
   <si>
-    <t>20170514,20170524,20170531,</t>
+    <t>20170220,20170312,20170315,</t>
   </si>
   <si>
-    <t>20170524,20170531,20170603,</t>
-  </si>
-  <si>
-    <t>20170531,20170603,20170613,</t>
-  </si>
-  <si>
-    <t>20170814,20170819,20170822,</t>
-  </si>
-  <si>
-    <t>20170819,20170822,20170824,</t>
-  </si>
-  <si>
-    <t>20171018,20171026,20171028,</t>
-  </si>
-  <si>
-    <t>20171026,20171028,20171031,</t>
-  </si>
-  <si>
-    <t>20170730,20170807,20170814,</t>
-  </si>
-  <si>
-    <t>20170807,20170814,20170819,</t>
-  </si>
-  <si>
-    <t>20170723,20170730,20170807,</t>
-  </si>
-  <si>
-    <t>20170603,20170613,20170620,</t>
-  </si>
-  <si>
-    <t>20170511,20170514,20170524,</t>
-  </si>
-  <si>
-    <t>20170501,20170511,20170514,</t>
-  </si>
-  <si>
-    <t>20170822,20170824,20170827,</t>
-  </si>
-  <si>
-    <t>20170824,20170827,20170911,</t>
-  </si>
-  <si>
-    <t>20170424,20170501,20170511,</t>
-  </si>
-  <si>
-    <t>20170421,20170424,20170501,</t>
-  </si>
-  <si>
-    <t>20170411,20170421,20170424,</t>
-  </si>
-  <si>
-    <t>20170827,20170911,20170918,</t>
-  </si>
-  <si>
-    <t>20170404,20170411,20170421,</t>
-  </si>
-  <si>
-    <t>20170911,20170918,20170928,</t>
-  </si>
-  <si>
-    <t>20170315,20170404,20170411,</t>
+    <t>20170312,20170315,20170404,</t>
   </si>
   <si>
     <t>20170918,20170928,20171006,</t>
   </si>
   <si>
-    <t>20171031,20171102,20171115,</t>
+    <t>20170928,20171006,20171008,</t>
   </si>
   <si>
-    <t>20170928,20171006,20171008,</t>
+    <t>20171006,20171008,20171016,</t>
+  </si>
+  <si>
+    <t>20171008,20171016,20171018,</t>
+  </si>
+  <si>
+    <t>20171016,20171018,20171026,</t>
+  </si>
+  <si>
+    <t>20171028,20171031,20171102,</t>
   </si>
   <si>
     <t>20171102,20171115,20171120,</t>
@@ -154,28 +151,28 @@
     <t>20171115,20171120,20171122,</t>
   </si>
   <si>
-    <t>20171028,20171031,20171102,</t>
+    <t>20171120,20171122,20171127,</t>
   </si>
   <si>
-    <t>20171006,20171008,20171016,</t>
+    <t>20171122,20171127,20171207,</t>
   </si>
   <si>
-    <t>20170312,20170315,20170404,</t>
+    <t>20171127,20171207,20171210,</t>
   </si>
   <si>
-    <t>20170220,20170312,20170315,</t>
+    <t>20171207,20171210,20171215,</t>
   </si>
   <si>
-    <t>20171008,20171016,20171018,</t>
+    <t>20171031,20171102,20171115,</t>
   </si>
   <si>
-    <t>20171016,20171018,20171026,</t>
+    <t>Log 10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -312,7 +309,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -492,44 +489,8 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF99FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF9999"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -644,43 +605,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -726,32 +650,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -799,12 +699,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="FFFF9999"/>
-      <color rgb="FFFF99FF"/>
-    </mruColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -831,62 +725,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="window" lastClr="FFFFFF">
-                    <a:lumMod val="95000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:srgbClr val="000000">
-                      <a:alpha val="40000"/>
-                    </a:srgbClr>
-                  </a:outerShdw>
-                </a:effectLst>
-              </a:rPr>
-              <a:t>Number of occurrence of a pattern</a:t>
-            </a:r>
-            <a:endParaRPr lang="fr-FR">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -899,26 +737,12 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
+          <a:pPr>
             <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:sysClr val="window" lastClr="FFFFFF">
+                <a:schemeClr val="lt1">
                   <a:lumMod val="95000"/>
-                </a:sysClr>
+                </a:schemeClr>
               </a:solidFill>
               <a:effectLst>
                 <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
@@ -947,7 +771,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Parcels_220_quantized_1176.0!$A$1</c:f>
+              <c:f>Parcels_220_quantized_1176.0!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -976,105 +800,198 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Parcels_220_quantized_1176.0!$A$2:$A$33</c:f>
+              <c:f>Parcels_220_quantized_1176.0!$B$2:$B$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="63"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1</c:v>
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1082,7 +999,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BAAE-4D6A-8A1A-9DFEBE9E8B4C}"/>
+              <c16:uniqueId val="{00000000-6EBD-4ABC-81B4-F0D6725EE991}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1095,11 +1012,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1292415359"/>
-        <c:axId val="1292366271"/>
+        <c:axId val="2042389952"/>
+        <c:axId val="2041445024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1292415359"/>
+        <c:axId val="2042389952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1140,7 +1057,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1292366271"/>
+        <c:crossAx val="2041445024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1148,7 +1065,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1292366271"/>
+        <c:axId val="2041445024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1198,7 +1115,479 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1292415359"/>
+        <c:crossAx val="2042389952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Parcels_220_quantized_1176.0!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Log 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Parcels_220_quantized_1176.0!$A$2:$A$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>2.2405492482825999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1931245983544616</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.173186268412274</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8512583487190752</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8195439355418688</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7923916894982539</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7481880270062005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7481880270062005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7481880270062005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5910646070264991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.568201724066995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.568201724066995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5440680443502757</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.5314789170422551</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5314789170422551</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5314789170422551</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.5185139398778875</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.4471580313422192</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.4313637641589874</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.4313637641589874</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.4313637641589874</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.414973347970818</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.414973347970818</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.414973347970818</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.414973347970818</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.414973347970818</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.3802112417116059</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.3802112417116059</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.3424226808222062</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.3424226808222062</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.3222192947339193</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.3222192947339193</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.3222192947339193</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.3222192947339193</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.3222192947339193</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.3222192947339193</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.3222192947339193</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.3222192947339193</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.3222192947339193</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.3010299956639813</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.3010299956639813</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.2304489213782739</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.2304489213782739</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.2041199826559248</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.2041199826559248</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.2041199826559248</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.2041199826559248</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.2041199826559248</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.2041199826559248</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.1760912590556813</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.146128035678238</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.146128035678238</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.1139433523068367</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.1139433523068367</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.1139433523068367</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.0791812460476249</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.0791812460476249</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.0791812460476249</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.0791812460476249</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.0413926851582251</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.0413926851582251</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.0413926851582251</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.0413926851582251</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B08A-4B63-9BB5-9ED1B1570068}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2042389152"/>
+        <c:axId val="2041449184"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2042389152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2041449184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2041449184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2042389152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1266,6 +1655,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1801,27 +2230,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E27CBED-0270-4A93-B6AC-703ABE01F08D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AD56529-00B9-48FD-B0AD-F2A2156A754C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1839,48 +2764,40 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>46622</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>340636</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>161439</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F566585C-BC79-48DC-BD3C-C5355A73349B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D4F2FC9-B859-4F21-87E8-8D22A359F381}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3238500" y="3475622"/>
-          <a:ext cx="14780536" cy="3162817"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2182,767 +3099,6571 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:FT64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:176" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="2" spans="1:176" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>LOG10(B2)</f>
+        <v>2.2405492482825999</v>
+      </c>
+      <c r="B2">
+        <v>174</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T2" t="s">
+        <v>8</v>
+      </c>
+      <c r="U2" t="s">
+        <v>8</v>
+      </c>
+      <c r="V2" t="s">
+        <v>8</v>
+      </c>
+      <c r="W2" t="s">
+        <v>8</v>
+      </c>
+      <c r="X2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>11</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>11</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>11</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>11</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>11</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>11</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>11</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>11</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>11</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>11</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>11</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>12</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>12</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>12</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>12</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>12</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>12</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>12</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>12</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>13</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>13</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>13</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>13</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>13</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>13</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>13</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>13</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>14</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>14</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>14</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>14</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>14</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>14</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>14</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>14</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>15</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>15</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>15</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>15</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>15</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>15</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>15</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>15</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>16</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>16</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>16</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>16</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>16</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>16</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>16</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>16</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>17</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>17</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>17</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>17</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>17</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>17</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>17</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>17</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>18</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>18</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>18</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>18</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>18</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>18</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>18</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>18</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>19</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>19</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>19</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>19</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>19</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>19</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>19</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>19</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>20</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>20</v>
+      </c>
+      <c r="DZ2" t="s">
+        <v>20</v>
+      </c>
+      <c r="EA2" t="s">
+        <v>20</v>
+      </c>
+      <c r="EB2" t="s">
+        <v>20</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>20</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>20</v>
+      </c>
+      <c r="EE2" t="s">
+        <v>20</v>
+      </c>
+      <c r="EF2" t="s">
+        <v>21</v>
+      </c>
+      <c r="EG2" t="s">
+        <v>21</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>21</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>21</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>21</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>21</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>21</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>21</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>21</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>21</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>21</v>
+      </c>
+      <c r="EQ2" t="s">
+        <v>22</v>
+      </c>
+      <c r="ER2" t="s">
+        <v>22</v>
+      </c>
+      <c r="ES2" t="s">
+        <v>22</v>
+      </c>
+      <c r="ET2" t="s">
+        <v>22</v>
+      </c>
+      <c r="EU2" t="s">
+        <v>22</v>
+      </c>
+      <c r="EV2" t="s">
+        <v>22</v>
+      </c>
+      <c r="EW2" t="s">
+        <v>22</v>
+      </c>
+      <c r="EX2" t="s">
+        <v>22</v>
+      </c>
+      <c r="EY2" t="s">
+        <v>23</v>
+      </c>
+      <c r="EZ2" t="s">
+        <v>23</v>
+      </c>
+      <c r="FA2" t="s">
+        <v>23</v>
+      </c>
+      <c r="FB2" t="s">
+        <v>23</v>
+      </c>
+      <c r="FC2" t="s">
+        <v>23</v>
+      </c>
+      <c r="FD2" t="s">
+        <v>24</v>
+      </c>
+      <c r="FE2" t="s">
+        <v>24</v>
+      </c>
+      <c r="FF2" t="s">
+        <v>24</v>
+      </c>
+      <c r="FG2" t="s">
+        <v>24</v>
+      </c>
+      <c r="FH2" t="s">
+        <v>24</v>
+      </c>
+      <c r="FI2" t="s">
+        <v>25</v>
+      </c>
+      <c r="FJ2" t="s">
+        <v>25</v>
+      </c>
+      <c r="FK2" t="s">
+        <v>25</v>
+      </c>
+      <c r="FL2" t="s">
+        <v>25</v>
+      </c>
+      <c r="FM2" t="s">
+        <v>25</v>
+      </c>
+      <c r="FN2" t="s">
+        <v>26</v>
+      </c>
+      <c r="FO2" t="s">
+        <v>26</v>
+      </c>
+      <c r="FP2" t="s">
+        <v>26</v>
+      </c>
+      <c r="FQ2" t="s">
+        <v>26</v>
+      </c>
+      <c r="FR2" t="s">
+        <v>26</v>
+      </c>
+      <c r="FS2" t="s">
+        <v>27</v>
+      </c>
+      <c r="FT2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:176" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>LOG10(B3)</f>
+        <v>2.1931245983544616</v>
+      </c>
+      <c r="B3">
+        <v>156</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>34</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>34</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>34</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>34</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>34</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>34</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>34</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>34</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>34</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>34</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>34</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>35</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>35</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>35</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>35</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>35</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>35</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>35</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CF3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CH3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CK3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL3" t="s">
+        <v>37</v>
+      </c>
+      <c r="CM3" t="s">
+        <v>37</v>
+      </c>
+      <c r="CN3" t="s">
+        <v>37</v>
+      </c>
+      <c r="CO3" t="s">
+        <v>37</v>
+      </c>
+      <c r="CP3" t="s">
+        <v>37</v>
+      </c>
+      <c r="CQ3" t="s">
+        <v>37</v>
+      </c>
+      <c r="CR3" t="s">
+        <v>37</v>
+      </c>
+      <c r="CS3" t="s">
+        <v>37</v>
+      </c>
+      <c r="CT3" t="s">
+        <v>37</v>
+      </c>
+      <c r="CU3" t="s">
+        <v>37</v>
+      </c>
+      <c r="CV3" t="s">
+        <v>37</v>
+      </c>
+      <c r="CW3" t="s">
+        <v>38</v>
+      </c>
+      <c r="CX3" t="s">
+        <v>38</v>
+      </c>
+      <c r="CY3" t="s">
+        <v>38</v>
+      </c>
+      <c r="CZ3" t="s">
+        <v>39</v>
+      </c>
+      <c r="DA3" t="s">
+        <v>40</v>
+      </c>
+      <c r="DB3" t="s">
+        <v>40</v>
+      </c>
+      <c r="DC3" t="s">
+        <v>40</v>
+      </c>
+      <c r="DD3" t="s">
+        <v>40</v>
+      </c>
+      <c r="DE3" t="s">
+        <v>40</v>
+      </c>
+      <c r="DF3" t="s">
+        <v>40</v>
+      </c>
+      <c r="DG3" t="s">
+        <v>40</v>
+      </c>
+      <c r="DH3" t="s">
+        <v>40</v>
+      </c>
+      <c r="DI3" t="s">
+        <v>40</v>
+      </c>
+      <c r="DJ3" t="s">
+        <v>40</v>
+      </c>
+      <c r="DK3" t="s">
+        <v>40</v>
+      </c>
+      <c r="DL3" t="s">
+        <v>41</v>
+      </c>
+      <c r="DM3" t="s">
+        <v>41</v>
+      </c>
+      <c r="DN3" t="s">
+        <v>41</v>
+      </c>
+      <c r="DO3" t="s">
+        <v>41</v>
+      </c>
+      <c r="DP3" t="s">
+        <v>42</v>
+      </c>
+      <c r="DQ3" t="s">
+        <v>42</v>
+      </c>
+      <c r="DR3" t="s">
+        <v>42</v>
+      </c>
+      <c r="DS3" t="s">
+        <v>42</v>
+      </c>
+      <c r="DT3" t="s">
+        <v>42</v>
+      </c>
+      <c r="DU3" t="s">
+        <v>42</v>
+      </c>
+      <c r="DV3" t="s">
+        <v>42</v>
+      </c>
+      <c r="DW3" t="s">
+        <v>43</v>
+      </c>
+      <c r="DX3" t="s">
+        <v>43</v>
+      </c>
+      <c r="DY3" t="s">
+        <v>43</v>
+      </c>
+      <c r="DZ3" t="s">
+        <v>43</v>
+      </c>
+      <c r="EA3" t="s">
+        <v>43</v>
+      </c>
+      <c r="EB3" t="s">
+        <v>43</v>
+      </c>
+      <c r="EC3" t="s">
+        <v>43</v>
+      </c>
+      <c r="ED3" t="s">
+        <v>43</v>
+      </c>
+      <c r="EE3" t="s">
+        <v>44</v>
+      </c>
+      <c r="EF3" t="s">
+        <v>44</v>
+      </c>
+      <c r="EG3" t="s">
+        <v>44</v>
+      </c>
+      <c r="EH3" t="s">
+        <v>44</v>
+      </c>
+      <c r="EI3" t="s">
+        <v>44</v>
+      </c>
+      <c r="EJ3" t="s">
+        <v>44</v>
+      </c>
+      <c r="EK3" t="s">
+        <v>44</v>
+      </c>
+      <c r="EL3" t="s">
+        <v>44</v>
+      </c>
+      <c r="EM3" t="s">
+        <v>45</v>
+      </c>
+      <c r="EN3" t="s">
+        <v>45</v>
+      </c>
+      <c r="EO3" t="s">
+        <v>45</v>
+      </c>
+      <c r="EP3" t="s">
+        <v>45</v>
+      </c>
+      <c r="EQ3" t="s">
+        <v>45</v>
+      </c>
+      <c r="ER3" t="s">
+        <v>45</v>
+      </c>
+      <c r="ES3" t="s">
+        <v>45</v>
+      </c>
+      <c r="ET3" t="s">
+        <v>45</v>
+      </c>
+      <c r="EU3" t="s">
+        <v>46</v>
+      </c>
+      <c r="EV3" t="s">
+        <v>46</v>
+      </c>
+      <c r="EW3" t="s">
+        <v>46</v>
+      </c>
+      <c r="EX3" t="s">
+        <v>46</v>
+      </c>
+      <c r="EY3" t="s">
+        <v>46</v>
+      </c>
+      <c r="EZ3" t="s">
+        <v>46</v>
+      </c>
+      <c r="FA3" t="s">
+        <v>46</v>
+      </c>
+      <c r="FB3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:176" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A64" si="0">LOG10(B4)</f>
+        <v>2.173186268412274</v>
+      </c>
+      <c r="B4">
+        <v>149</v>
+      </c>
+      <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="H4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>3</v>
+      </c>
+      <c r="R4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="S4" t="s">
+        <v>4</v>
+      </c>
+      <c r="T4" t="s">
+        <v>4</v>
+      </c>
+      <c r="U4" t="s">
+        <v>4</v>
+      </c>
+      <c r="V4" t="s">
+        <v>4</v>
+      </c>
+      <c r="W4" t="s">
+        <v>4</v>
+      </c>
+      <c r="X4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="AI4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="AY4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>6</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>6</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>6</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>6</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>6</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>6</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>6</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>6</v>
+      </c>
+      <c r="BJ4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="BK4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="9"/>
+      <c r="BL4" t="s">
+        <v>9</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>10</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>11</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>12</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>12</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>12</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>12</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>12</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>13</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>13</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>13</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>13</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>14</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>14</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>14</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>14</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>15</v>
+      </c>
+      <c r="CC4" t="s">
+        <v>15</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>15</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>15</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>16</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>16</v>
+      </c>
+      <c r="CH4" t="s">
+        <v>16</v>
+      </c>
+      <c r="CI4" t="s">
+        <v>16</v>
+      </c>
+      <c r="CJ4" t="s">
+        <v>17</v>
+      </c>
+      <c r="CK4" t="s">
+        <v>17</v>
+      </c>
+      <c r="CL4" t="s">
+        <v>17</v>
+      </c>
+      <c r="CM4" t="s">
+        <v>17</v>
+      </c>
+      <c r="CN4" t="s">
+        <v>18</v>
+      </c>
+      <c r="CO4" t="s">
+        <v>18</v>
+      </c>
+      <c r="CP4" t="s">
+        <v>18</v>
+      </c>
+      <c r="CQ4" t="s">
+        <v>18</v>
+      </c>
+      <c r="CR4" t="s">
+        <v>19</v>
+      </c>
+      <c r="CS4" t="s">
+        <v>19</v>
+      </c>
+      <c r="CT4" t="s">
+        <v>19</v>
+      </c>
+      <c r="CU4" t="s">
+        <v>19</v>
+      </c>
+      <c r="CV4" t="s">
+        <v>20</v>
+      </c>
+      <c r="CW4" t="s">
+        <v>20</v>
+      </c>
+      <c r="CX4" t="s">
+        <v>20</v>
+      </c>
+      <c r="CY4" t="s">
+        <v>20</v>
+      </c>
+      <c r="CZ4" t="s">
+        <v>21</v>
+      </c>
+      <c r="DA4" t="s">
+        <v>22</v>
+      </c>
+      <c r="DB4" t="s">
+        <v>22</v>
+      </c>
+      <c r="DC4" t="s">
+        <v>22</v>
+      </c>
+      <c r="DD4" t="s">
+        <v>22</v>
+      </c>
+      <c r="DE4" t="s">
+        <v>23</v>
+      </c>
+      <c r="DF4" t="s">
+        <v>23</v>
+      </c>
+      <c r="DG4" t="s">
+        <v>23</v>
+      </c>
+      <c r="DH4" t="s">
+        <v>23</v>
+      </c>
+      <c r="DI4" t="s">
+        <v>23</v>
+      </c>
+      <c r="DJ4" t="s">
+        <v>23</v>
+      </c>
+      <c r="DK4" t="s">
+        <v>23</v>
+      </c>
+      <c r="DL4" t="s">
+        <v>23</v>
+      </c>
+      <c r="DM4" t="s">
+        <v>24</v>
+      </c>
+      <c r="DN4" t="s">
+        <v>24</v>
+      </c>
+      <c r="DO4" t="s">
+        <v>24</v>
+      </c>
+      <c r="DP4" t="s">
+        <v>24</v>
+      </c>
+      <c r="DQ4" t="s">
+        <v>24</v>
+      </c>
+      <c r="DR4" t="s">
+        <v>24</v>
+      </c>
+      <c r="DS4" t="s">
+        <v>24</v>
+      </c>
+      <c r="DT4" t="s">
+        <v>24</v>
+      </c>
+      <c r="DU4" t="s">
+        <v>25</v>
+      </c>
+      <c r="DV4" t="s">
+        <v>25</v>
+      </c>
+      <c r="DW4" t="s">
+        <v>25</v>
+      </c>
+      <c r="DX4" t="s">
+        <v>25</v>
+      </c>
+      <c r="DY4" t="s">
+        <v>25</v>
+      </c>
+      <c r="DZ4" t="s">
+        <v>25</v>
+      </c>
+      <c r="EA4" t="s">
+        <v>25</v>
+      </c>
+      <c r="EB4" t="s">
+        <v>25</v>
+      </c>
+      <c r="EC4" t="s">
+        <v>25</v>
+      </c>
+      <c r="ED4" t="s">
+        <v>26</v>
+      </c>
+      <c r="EE4" t="s">
+        <v>26</v>
+      </c>
+      <c r="EF4" t="s">
+        <v>26</v>
+      </c>
+      <c r="EG4" t="s">
+        <v>26</v>
+      </c>
+      <c r="EH4" t="s">
+        <v>26</v>
+      </c>
+      <c r="EI4" t="s">
+        <v>26</v>
+      </c>
+      <c r="EJ4" t="s">
+        <v>26</v>
+      </c>
+      <c r="EK4" t="s">
+        <v>26</v>
+      </c>
+      <c r="EL4" t="s">
+        <v>26</v>
+      </c>
+      <c r="EM4" t="s">
+        <v>26</v>
+      </c>
+      <c r="EN4" t="s">
+        <v>27</v>
+      </c>
+      <c r="EO4" t="s">
+        <v>27</v>
+      </c>
+      <c r="EP4" t="s">
+        <v>27</v>
+      </c>
+      <c r="EQ4" t="s">
+        <v>27</v>
+      </c>
+      <c r="ER4" t="s">
+        <v>27</v>
+      </c>
+      <c r="ES4" t="s">
+        <v>27</v>
+      </c>
+      <c r="ET4" t="s">
+        <v>27</v>
+      </c>
+      <c r="EU4" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+    <row r="5" spans="1:176" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>1.8512583487190752</v>
+      </c>
+      <c r="B5">
+        <v>71</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="H5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R5" t="s">
+        <v>6</v>
+      </c>
+      <c r="S5" t="s">
+        <v>8</v>
+      </c>
+      <c r="T5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="U5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="V5" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="W5" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12"/>
+      <c r="X5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>19</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>19</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>19</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>19</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>21</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>22</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>23</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>23</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>24</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>24</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>25</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>25</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>25</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>26</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>26</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>26</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>27</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>27</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>27</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+    <row r="6" spans="1:176" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>1.8195439355418688</v>
+      </c>
+      <c r="B6">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O6" t="s">
+        <v>3</v>
+      </c>
+      <c r="P6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>3</v>
+      </c>
+      <c r="R6" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="S6" t="s">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s">
+        <v>4</v>
+      </c>
+      <c r="U6" t="s">
+        <v>4</v>
+      </c>
+      <c r="V6" t="s">
+        <v>4</v>
+      </c>
+      <c r="W6" t="s">
+        <v>4</v>
+      </c>
+      <c r="X6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT6" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="AU6" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="AV6" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="AW6" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15"/>
+      <c r="AX6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>19</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>23</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>24</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>25</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>25</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>26</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>26</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>26</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>27</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>27</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>27</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>27</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>27</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>27</v>
+      </c>
+      <c r="BN6" t="s">
+        <v>27</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+    <row r="7" spans="1:176" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>1.7923916894982539</v>
+      </c>
+      <c r="B7">
+        <v>62</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="K7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" t="s">
+        <v>3</v>
+      </c>
+      <c r="S7" t="s">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s">
+        <v>4</v>
+      </c>
+      <c r="U7" t="s">
+        <v>4</v>
+      </c>
+      <c r="V7" t="s">
+        <v>4</v>
+      </c>
+      <c r="W7" t="s">
+        <v>4</v>
+      </c>
+      <c r="X7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>27</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>27</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>27</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>27</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>27</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>27</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>27</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>27</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>28</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>28</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>28</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>28</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:176" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>1.7481880270062005</v>
+      </c>
+      <c r="B8">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s">
+        <v>5</v>
+      </c>
+      <c r="U8" t="s">
+        <v>5</v>
+      </c>
+      <c r="V8" t="s">
+        <v>6</v>
+      </c>
+      <c r="W8" t="s">
+        <v>6</v>
+      </c>
+      <c r="X8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>40</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>47</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>47</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>47</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>41</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>41</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:176" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>1.7481880270062005</v>
+      </c>
+      <c r="B9">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" t="s">
+        <v>31</v>
+      </c>
+      <c r="O9" t="s">
+        <v>31</v>
+      </c>
+      <c r="P9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S9" t="s">
+        <v>32</v>
+      </c>
+      <c r="T9" t="s">
+        <v>32</v>
+      </c>
+      <c r="U9" t="s">
+        <v>32</v>
+      </c>
+      <c r="V9" t="s">
+        <v>32</v>
+      </c>
+      <c r="W9" t="s">
+        <v>33</v>
+      </c>
+      <c r="X9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>44</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>45</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>45</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>46</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>46</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:176" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>1.7481880270062005</v>
+      </c>
+      <c r="B10">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N10" t="s">
+        <v>31</v>
+      </c>
+      <c r="O10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P10" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>31</v>
+      </c>
+      <c r="R10" t="s">
+        <v>32</v>
+      </c>
+      <c r="S10" t="s">
+        <v>32</v>
+      </c>
+      <c r="T10" t="s">
+        <v>32</v>
+      </c>
+      <c r="U10" t="s">
+        <v>32</v>
+      </c>
+      <c r="V10" t="s">
+        <v>32</v>
+      </c>
+      <c r="W10" t="s">
+        <v>33</v>
+      </c>
+      <c r="X10" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>44</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>45</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>45</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>46</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>46</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:176" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>1.5910646070264991</v>
+      </c>
+      <c r="B11">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" t="s">
+        <v>47</v>
+      </c>
+      <c r="N11" t="s">
+        <v>47</v>
+      </c>
+      <c r="O11" t="s">
+        <v>47</v>
+      </c>
+      <c r="P11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>47</v>
+      </c>
+      <c r="R11" t="s">
+        <v>47</v>
+      </c>
+      <c r="S11" t="s">
+        <v>47</v>
+      </c>
+      <c r="T11" t="s">
+        <v>47</v>
+      </c>
+      <c r="U11" t="s">
+        <v>47</v>
+      </c>
+      <c r="V11" t="s">
+        <v>47</v>
+      </c>
+      <c r="W11" t="s">
+        <v>47</v>
+      </c>
+      <c r="X11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:176" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>1.568201724066995</v>
+      </c>
+      <c r="B12">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O12" t="s">
+        <v>7</v>
+      </c>
+      <c r="P12" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>12</v>
+      </c>
+      <c r="R12" t="s">
+        <v>13</v>
+      </c>
+      <c r="S12" t="s">
+        <v>14</v>
+      </c>
+      <c r="T12" t="s">
+        <v>15</v>
+      </c>
+      <c r="U12" t="s">
+        <v>16</v>
+      </c>
+      <c r="V12" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="W12" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="X12" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18"/>
+      <c r="Y12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+    <row r="13" spans="1:176" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>1.568201724066995</v>
+      </c>
+      <c r="B13">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" t="s">
+        <v>6</v>
+      </c>
+      <c r="M13" t="s">
+        <v>6</v>
+      </c>
+      <c r="N13" t="s">
+        <v>6</v>
+      </c>
+      <c r="O13" t="s">
+        <v>7</v>
+      </c>
+      <c r="P13" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>12</v>
+      </c>
+      <c r="R13" t="s">
+        <v>13</v>
+      </c>
+      <c r="S13" t="s">
+        <v>14</v>
+      </c>
+      <c r="T13" t="s">
+        <v>15</v>
+      </c>
+      <c r="U13" t="s">
+        <v>16</v>
+      </c>
+      <c r="V13" t="s">
+        <v>17</v>
+      </c>
+      <c r="W13" t="s">
+        <v>18</v>
+      </c>
+      <c r="X13" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:176" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>1.5440680443502757</v>
+      </c>
+      <c r="B14">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" t="s">
+        <v>35</v>
+      </c>
+      <c r="N14" t="s">
+        <v>35</v>
+      </c>
+      <c r="O14" t="s">
+        <v>35</v>
+      </c>
+      <c r="P14" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>40</v>
+      </c>
+      <c r="R14" t="s">
+        <v>47</v>
+      </c>
+      <c r="S14" t="s">
+        <v>47</v>
+      </c>
+      <c r="T14" t="s">
+        <v>47</v>
+      </c>
+      <c r="U14" t="s">
+        <v>47</v>
+      </c>
+      <c r="V14" t="s">
+        <v>47</v>
+      </c>
+      <c r="W14" t="s">
+        <v>47</v>
+      </c>
+      <c r="X14" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:176" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>1.5314789170422551</v>
+      </c>
+      <c r="B15">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" t="s">
+        <v>2</v>
+      </c>
+      <c r="K15" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" t="s">
+        <v>3</v>
+      </c>
+      <c r="P15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>3</v>
+      </c>
+      <c r="R15" t="s">
+        <v>3</v>
+      </c>
+      <c r="S15" t="s">
+        <v>3</v>
+      </c>
+      <c r="T15" t="s">
+        <v>3</v>
+      </c>
+      <c r="U15" t="s">
+        <v>3</v>
+      </c>
+      <c r="V15" t="s">
+        <v>3</v>
+      </c>
+      <c r="W15" t="s">
+        <v>4</v>
+      </c>
+      <c r="X15" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC15" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="AD15" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:176" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>1.5314789170422551</v>
+      </c>
+      <c r="B16">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" t="s">
+        <v>5</v>
+      </c>
+      <c r="K16" t="s">
+        <v>5</v>
+      </c>
+      <c r="L16" t="s">
+        <v>5</v>
+      </c>
+      <c r="M16" t="s">
+        <v>6</v>
+      </c>
+      <c r="N16" t="s">
+        <v>6</v>
+      </c>
+      <c r="O16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P16" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>7</v>
+      </c>
+      <c r="R16" t="s">
+        <v>7</v>
+      </c>
+      <c r="S16" t="s">
+        <v>8</v>
+      </c>
+      <c r="T16" t="s">
+        <v>8</v>
+      </c>
+      <c r="U16" t="s">
+        <v>8</v>
+      </c>
+      <c r="V16" t="s">
+        <v>9</v>
+      </c>
+      <c r="W16" t="s">
+        <v>9</v>
+      </c>
+      <c r="X16" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE16" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="21"/>
+      <c r="AF16" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>1.5314789170422551</v>
+      </c>
+      <c r="B17">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" t="s">
+        <v>6</v>
+      </c>
+      <c r="N17" t="s">
+        <v>6</v>
+      </c>
+      <c r="O17" t="s">
+        <v>6</v>
+      </c>
+      <c r="P17" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>7</v>
+      </c>
+      <c r="R17" t="s">
+        <v>7</v>
+      </c>
+      <c r="S17" t="s">
+        <v>8</v>
+      </c>
+      <c r="T17" t="s">
+        <v>8</v>
+      </c>
+      <c r="U17" t="s">
+        <v>8</v>
+      </c>
+      <c r="V17" t="s">
+        <v>9</v>
+      </c>
+      <c r="W17" t="s">
+        <v>9</v>
+      </c>
+      <c r="X17" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF17" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="AG17" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="24"/>
+      <c r="AH17" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>1.5185139398778875</v>
+      </c>
+      <c r="B18">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" t="s">
+        <v>35</v>
+      </c>
+      <c r="J18" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" t="s">
+        <v>35</v>
+      </c>
+      <c r="L18" t="s">
+        <v>35</v>
+      </c>
+      <c r="M18" t="s">
+        <v>35</v>
+      </c>
+      <c r="N18" t="s">
+        <v>35</v>
+      </c>
+      <c r="O18" t="s">
+        <v>35</v>
+      </c>
+      <c r="P18" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>35</v>
+      </c>
+      <c r="R18" t="s">
+        <v>40</v>
+      </c>
+      <c r="S18" t="s">
+        <v>47</v>
+      </c>
+      <c r="T18" t="s">
+        <v>47</v>
+      </c>
+      <c r="U18" t="s">
+        <v>47</v>
+      </c>
+      <c r="V18" t="s">
+        <v>47</v>
+      </c>
+      <c r="W18" t="s">
+        <v>47</v>
+      </c>
+      <c r="X18" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>1.4471580313422192</v>
+      </c>
+      <c r="B19">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J19" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19" t="s">
+        <v>35</v>
+      </c>
+      <c r="L19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19" t="s">
+        <v>40</v>
+      </c>
+      <c r="N19" t="s">
+        <v>40</v>
+      </c>
+      <c r="O19" t="s">
+        <v>47</v>
+      </c>
+      <c r="P19" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>47</v>
+      </c>
+      <c r="R19" t="s">
+        <v>47</v>
+      </c>
+      <c r="S19" t="s">
+        <v>47</v>
+      </c>
+      <c r="T19" t="s">
+        <v>47</v>
+      </c>
+      <c r="U19" t="s">
+        <v>47</v>
+      </c>
+      <c r="V19" t="s">
+        <v>47</v>
+      </c>
+      <c r="W19" t="s">
+        <v>41</v>
+      </c>
+      <c r="X19" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>1.4313637641589874</v>
+      </c>
+      <c r="B20">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" t="s">
+        <v>6</v>
+      </c>
+      <c r="M20" t="s">
+        <v>6</v>
+      </c>
+      <c r="N20" t="s">
+        <v>6</v>
+      </c>
+      <c r="O20" t="s">
+        <v>7</v>
+      </c>
+      <c r="P20" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>9</v>
+      </c>
+      <c r="R20" t="s">
+        <v>10</v>
+      </c>
+      <c r="S20" t="s">
+        <v>11</v>
+      </c>
+      <c r="T20" t="s">
+        <v>12</v>
+      </c>
+      <c r="U20" t="s">
+        <v>23</v>
+      </c>
+      <c r="V20" t="s">
         <v>24</v>
       </c>
+      <c r="W20" t="s">
+        <v>25</v>
+      </c>
+      <c r="X20" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>1.4313637641589874</v>
+      </c>
+      <c r="B21">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" t="s">
+        <v>6</v>
+      </c>
+      <c r="M21" t="s">
+        <v>6</v>
+      </c>
+      <c r="N21" t="s">
+        <v>6</v>
+      </c>
+      <c r="O21" t="s">
+        <v>7</v>
+      </c>
+      <c r="P21" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>9</v>
+      </c>
+      <c r="R21" t="s">
+        <v>10</v>
+      </c>
+      <c r="S21" t="s">
+        <v>11</v>
+      </c>
+      <c r="T21" t="s">
+        <v>12</v>
+      </c>
+      <c r="U21" t="s">
+        <v>23</v>
+      </c>
+      <c r="V21" t="s">
+        <v>24</v>
+      </c>
+      <c r="W21" t="s">
         <v>25</v>
       </c>
+      <c r="X21" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>1.4313637641589874</v>
+      </c>
+      <c r="B22">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" t="s">
+        <v>10</v>
+      </c>
+      <c r="L22" t="s">
+        <v>11</v>
+      </c>
+      <c r="M22" t="s">
+        <v>12</v>
+      </c>
+      <c r="N22" t="s">
+        <v>13</v>
+      </c>
+      <c r="O22" t="s">
+        <v>14</v>
+      </c>
+      <c r="P22" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>16</v>
+      </c>
+      <c r="R22" t="s">
+        <v>17</v>
+      </c>
+      <c r="S22" t="s">
+        <v>18</v>
+      </c>
+      <c r="T22" t="s">
+        <v>19</v>
+      </c>
+      <c r="U22" t="s">
+        <v>20</v>
+      </c>
+      <c r="V22" t="s">
+        <v>21</v>
+      </c>
+      <c r="W22" t="s">
+        <v>22</v>
+      </c>
+      <c r="X22" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA22" t="s">
         <v>26</v>
       </c>
+      <c r="AB22" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>1.414973347970818</v>
+      </c>
+      <c r="B23">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" t="s">
+        <v>10</v>
+      </c>
+      <c r="K23" t="s">
+        <v>10</v>
+      </c>
+      <c r="L23" t="s">
+        <v>11</v>
+      </c>
+      <c r="M23" t="s">
+        <v>11</v>
+      </c>
+      <c r="N23" t="s">
+        <v>12</v>
+      </c>
+      <c r="O23" t="s">
+        <v>13</v>
+      </c>
+      <c r="P23" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>15</v>
+      </c>
+      <c r="R23" t="s">
+        <v>16</v>
+      </c>
+      <c r="S23" t="s">
+        <v>17</v>
+      </c>
+      <c r="T23" t="s">
+        <v>18</v>
+      </c>
+      <c r="U23" t="s">
+        <v>19</v>
+      </c>
+      <c r="V23" t="s">
+        <v>20</v>
+      </c>
+      <c r="W23" t="s">
+        <v>21</v>
+      </c>
+      <c r="X23" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>1.414973347970818</v>
+      </c>
+      <c r="B24">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24" t="s">
+        <v>9</v>
+      </c>
+      <c r="J24" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" t="s">
+        <v>10</v>
+      </c>
+      <c r="L24" t="s">
+        <v>11</v>
+      </c>
+      <c r="M24" t="s">
+        <v>11</v>
+      </c>
+      <c r="N24" t="s">
+        <v>12</v>
+      </c>
+      <c r="O24" t="s">
+        <v>13</v>
+      </c>
+      <c r="P24" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>15</v>
+      </c>
+      <c r="R24" t="s">
+        <v>16</v>
+      </c>
+      <c r="S24" t="s">
+        <v>17</v>
+      </c>
+      <c r="T24" t="s">
+        <v>18</v>
+      </c>
+      <c r="U24" t="s">
+        <v>19</v>
+      </c>
+      <c r="V24" t="s">
+        <v>20</v>
+      </c>
+      <c r="W24" t="s">
+        <v>21</v>
+      </c>
+      <c r="X24" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>1.414973347970818</v>
+      </c>
+      <c r="B25">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" t="s">
+        <v>4</v>
+      </c>
+      <c r="I25" t="s">
+        <v>4</v>
+      </c>
+      <c r="J25" t="s">
+        <v>5</v>
+      </c>
+      <c r="K25" t="s">
+        <v>6</v>
+      </c>
+      <c r="L25" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" t="s">
+        <v>23</v>
+      </c>
+      <c r="N25" t="s">
+        <v>23</v>
+      </c>
+      <c r="O25" t="s">
+        <v>23</v>
+      </c>
+      <c r="P25" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>24</v>
+      </c>
+      <c r="R25" t="s">
+        <v>24</v>
+      </c>
+      <c r="S25" t="s">
+        <v>24</v>
+      </c>
+      <c r="T25" t="s">
+        <v>24</v>
+      </c>
+      <c r="U25" t="s">
+        <v>25</v>
+      </c>
+      <c r="V25" t="s">
+        <v>25</v>
+      </c>
+      <c r="W25" t="s">
+        <v>25</v>
+      </c>
+      <c r="X25" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>1.414973347970818</v>
+      </c>
+      <c r="B26">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" t="s">
+        <v>30</v>
+      </c>
+      <c r="I26" t="s">
+        <v>31</v>
+      </c>
+      <c r="J26" t="s">
+        <v>31</v>
+      </c>
+      <c r="K26" t="s">
+        <v>31</v>
+      </c>
+      <c r="L26" t="s">
+        <v>32</v>
+      </c>
+      <c r="M26" t="s">
+        <v>32</v>
+      </c>
+      <c r="N26" t="s">
+        <v>32</v>
+      </c>
+      <c r="O26" t="s">
+        <v>33</v>
+      </c>
+      <c r="P26" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>34</v>
+      </c>
+      <c r="R26" t="s">
+        <v>34</v>
+      </c>
+      <c r="S26" t="s">
+        <v>36</v>
+      </c>
+      <c r="T26" t="s">
+        <v>37</v>
+      </c>
+      <c r="U26" t="s">
+        <v>40</v>
+      </c>
+      <c r="V26" t="s">
+        <v>47</v>
+      </c>
+      <c r="W26" t="s">
+        <v>41</v>
+      </c>
+      <c r="X26" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>1.414973347970818</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J27" t="s">
+        <v>31</v>
+      </c>
+      <c r="K27" t="s">
+        <v>31</v>
+      </c>
+      <c r="L27" t="s">
+        <v>32</v>
+      </c>
+      <c r="M27" t="s">
+        <v>32</v>
+      </c>
+      <c r="N27" t="s">
+        <v>32</v>
+      </c>
+      <c r="O27" t="s">
+        <v>33</v>
+      </c>
+      <c r="P27" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>34</v>
+      </c>
+      <c r="R27" t="s">
+        <v>34</v>
+      </c>
+      <c r="S27" t="s">
+        <v>36</v>
+      </c>
+      <c r="T27" t="s">
+        <v>37</v>
+      </c>
+      <c r="U27" t="s">
+        <v>40</v>
+      </c>
+      <c r="V27" t="s">
+        <v>47</v>
+      </c>
+      <c r="W27" t="s">
+        <v>41</v>
+      </c>
+      <c r="X27" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>1.3802112417116059</v>
+      </c>
+      <c r="B28">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" t="s">
+        <v>9</v>
+      </c>
+      <c r="J28" t="s">
+        <v>10</v>
+      </c>
+      <c r="K28" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" t="s">
+        <v>12</v>
+      </c>
+      <c r="M28" t="s">
+        <v>13</v>
+      </c>
+      <c r="N28" t="s">
+        <v>14</v>
+      </c>
+      <c r="O28" t="s">
+        <v>15</v>
+      </c>
+      <c r="P28" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>17</v>
+      </c>
+      <c r="R28" t="s">
+        <v>18</v>
+      </c>
+      <c r="S28" t="s">
+        <v>19</v>
+      </c>
+      <c r="T28" t="s">
+        <v>20</v>
+      </c>
+      <c r="U28" t="s">
+        <v>21</v>
+      </c>
+      <c r="V28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W28" t="s">
+        <v>23</v>
+      </c>
+      <c r="X28" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>1.3802112417116059</v>
+      </c>
+      <c r="B29">
+        <v>24</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J29" t="s">
+        <v>10</v>
+      </c>
+      <c r="K29" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" t="s">
+        <v>12</v>
+      </c>
+      <c r="M29" t="s">
+        <v>13</v>
+      </c>
+      <c r="N29" t="s">
+        <v>14</v>
+      </c>
+      <c r="O29" t="s">
+        <v>15</v>
+      </c>
+      <c r="P29" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>17</v>
+      </c>
+      <c r="R29" t="s">
+        <v>18</v>
+      </c>
+      <c r="S29" t="s">
+        <v>19</v>
+      </c>
+      <c r="T29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U29" t="s">
+        <v>21</v>
+      </c>
+      <c r="V29" t="s">
+        <v>22</v>
+      </c>
+      <c r="W29" t="s">
+        <v>23</v>
+      </c>
+      <c r="X29" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>1.3424226808222062</v>
+      </c>
+      <c r="B30">
+        <v>22</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" t="s">
+        <v>11</v>
+      </c>
+      <c r="J30" t="s">
+        <v>12</v>
+      </c>
+      <c r="K30" t="s">
+        <v>13</v>
+      </c>
+      <c r="L30" t="s">
+        <v>14</v>
+      </c>
+      <c r="M30" t="s">
+        <v>15</v>
+      </c>
+      <c r="N30" t="s">
+        <v>16</v>
+      </c>
+      <c r="O30" t="s">
+        <v>17</v>
+      </c>
+      <c r="P30" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>19</v>
+      </c>
+      <c r="R30" t="s">
+        <v>20</v>
+      </c>
+      <c r="S30" t="s">
+        <v>21</v>
+      </c>
+      <c r="T30" t="s">
+        <v>22</v>
+      </c>
+      <c r="U30" t="s">
+        <v>23</v>
+      </c>
+      <c r="V30" t="s">
+        <v>24</v>
+      </c>
+      <c r="W30" t="s">
+        <v>25</v>
+      </c>
+      <c r="X30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>1.3424226808222062</v>
+      </c>
+      <c r="B31">
+        <v>22</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" t="s">
+        <v>11</v>
+      </c>
+      <c r="J31" t="s">
+        <v>12</v>
+      </c>
+      <c r="K31" t="s">
+        <v>13</v>
+      </c>
+      <c r="L31" t="s">
+        <v>14</v>
+      </c>
+      <c r="M31" t="s">
+        <v>15</v>
+      </c>
+      <c r="N31" t="s">
+        <v>16</v>
+      </c>
+      <c r="O31" t="s">
+        <v>17</v>
+      </c>
+      <c r="P31" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>19</v>
+      </c>
+      <c r="R31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S31" t="s">
+        <v>21</v>
+      </c>
+      <c r="T31" t="s">
+        <v>22</v>
+      </c>
+      <c r="U31" t="s">
+        <v>23</v>
+      </c>
+      <c r="V31" t="s">
+        <v>24</v>
+      </c>
+      <c r="W31" t="s">
+        <v>25</v>
+      </c>
+      <c r="X31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>1.3222192947339193</v>
+      </c>
+      <c r="B32">
+        <v>21</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" t="s">
+        <v>6</v>
+      </c>
+      <c r="K32" t="s">
+        <v>6</v>
+      </c>
+      <c r="L32" t="s">
+        <v>12</v>
+      </c>
+      <c r="M32" t="s">
+        <v>13</v>
+      </c>
+      <c r="N32" t="s">
+        <v>14</v>
+      </c>
+      <c r="O32" t="s">
+        <v>15</v>
+      </c>
+      <c r="P32" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>17</v>
+      </c>
+      <c r="R32" t="s">
+        <v>18</v>
+      </c>
+      <c r="S32" t="s">
+        <v>19</v>
+      </c>
+      <c r="T32" t="s">
+        <v>20</v>
+      </c>
+      <c r="U32" t="s">
+        <v>25</v>
+      </c>
+      <c r="V32" t="s">
+        <v>26</v>
+      </c>
+      <c r="W32" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>1.3222192947339193</v>
+      </c>
+      <c r="B33">
+        <v>21</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" t="s">
+        <v>4</v>
+      </c>
+      <c r="H33" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" t="s">
+        <v>6</v>
+      </c>
+      <c r="K33" t="s">
+        <v>6</v>
+      </c>
+      <c r="L33" t="s">
+        <v>12</v>
+      </c>
+      <c r="M33" t="s">
+        <v>13</v>
+      </c>
+      <c r="N33" t="s">
+        <v>14</v>
+      </c>
+      <c r="O33" t="s">
+        <v>15</v>
+      </c>
+      <c r="P33" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>17</v>
+      </c>
+      <c r="R33" t="s">
+        <v>18</v>
+      </c>
+      <c r="S33" t="s">
+        <v>19</v>
+      </c>
+      <c r="T33" t="s">
+        <v>20</v>
+      </c>
+      <c r="U33" t="s">
+        <v>25</v>
+      </c>
+      <c r="V33" t="s">
+        <v>26</v>
+      </c>
+      <c r="W33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>1.3222192947339193</v>
+      </c>
+      <c r="B34">
+        <v>21</v>
+      </c>
+      <c r="C34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34" t="s">
+        <v>6</v>
+      </c>
+      <c r="I34" t="s">
+        <v>7</v>
+      </c>
+      <c r="J34" t="s">
+        <v>8</v>
+      </c>
+      <c r="K34" t="s">
+        <v>9</v>
+      </c>
+      <c r="L34" t="s">
+        <v>10</v>
+      </c>
+      <c r="M34" t="s">
+        <v>11</v>
+      </c>
+      <c r="N34" t="s">
+        <v>12</v>
+      </c>
+      <c r="O34" t="s">
+        <v>23</v>
+      </c>
+      <c r="P34" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>25</v>
+      </c>
+      <c r="R34" t="s">
+        <v>25</v>
+      </c>
+      <c r="S34" t="s">
+        <v>26</v>
+      </c>
+      <c r="T34" t="s">
+        <v>26</v>
+      </c>
+      <c r="U34" t="s">
+        <v>26</v>
+      </c>
+      <c r="V34" t="s">
+        <v>27</v>
+      </c>
+      <c r="W34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>1.3222192947339193</v>
+      </c>
+      <c r="B35">
+        <v>21</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H35" t="s">
+        <v>6</v>
+      </c>
+      <c r="I35" t="s">
+        <v>7</v>
+      </c>
+      <c r="J35" t="s">
+        <v>8</v>
+      </c>
+      <c r="K35" t="s">
+        <v>9</v>
+      </c>
+      <c r="L35" t="s">
+        <v>10</v>
+      </c>
+      <c r="M35" t="s">
+        <v>11</v>
+      </c>
+      <c r="N35" t="s">
+        <v>12</v>
+      </c>
+      <c r="O35" t="s">
+        <v>23</v>
+      </c>
+      <c r="P35" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>25</v>
+      </c>
+      <c r="R35" t="s">
+        <v>25</v>
+      </c>
+      <c r="S35" t="s">
+        <v>26</v>
+      </c>
+      <c r="T35" t="s">
+        <v>26</v>
+      </c>
+      <c r="U35" t="s">
+        <v>26</v>
+      </c>
+      <c r="V35" t="s">
+        <v>27</v>
+      </c>
+      <c r="W35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>1.3222192947339193</v>
+      </c>
+      <c r="B36">
+        <v>21</v>
+      </c>
+      <c r="C36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G36" t="s">
+        <v>31</v>
+      </c>
+      <c r="H36" t="s">
+        <v>31</v>
+      </c>
+      <c r="I36" t="s">
+        <v>32</v>
+      </c>
+      <c r="J36" t="s">
+        <v>32</v>
+      </c>
+      <c r="K36" t="s">
+        <v>33</v>
+      </c>
+      <c r="L36" t="s">
+        <v>33</v>
+      </c>
+      <c r="M36" t="s">
+        <v>34</v>
+      </c>
+      <c r="N36" t="s">
+        <v>34</v>
+      </c>
+      <c r="O36" t="s">
+        <v>36</v>
+      </c>
+      <c r="P36" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>37</v>
+      </c>
+      <c r="R36" t="s">
+        <v>40</v>
+      </c>
+      <c r="S36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T36" t="s">
+        <v>43</v>
+      </c>
+      <c r="U36" t="s">
+        <v>44</v>
+      </c>
+      <c r="V36" t="s">
+        <v>45</v>
+      </c>
+      <c r="W36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>1.3222192947339193</v>
+      </c>
+      <c r="B37">
+        <v>21</v>
+      </c>
+      <c r="C37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" t="s">
+        <v>30</v>
+      </c>
+      <c r="G37" t="s">
+        <v>31</v>
+      </c>
+      <c r="H37" t="s">
+        <v>31</v>
+      </c>
+      <c r="I37" t="s">
+        <v>32</v>
+      </c>
+      <c r="J37" t="s">
+        <v>32</v>
+      </c>
+      <c r="K37" t="s">
+        <v>33</v>
+      </c>
+      <c r="L37" t="s">
+        <v>33</v>
+      </c>
+      <c r="M37" t="s">
+        <v>34</v>
+      </c>
+      <c r="N37" t="s">
+        <v>34</v>
+      </c>
+      <c r="O37" t="s">
+        <v>36</v>
+      </c>
+      <c r="P37" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>37</v>
+      </c>
+      <c r="R37" t="s">
+        <v>40</v>
+      </c>
+      <c r="S37" t="s">
+        <v>40</v>
+      </c>
+      <c r="T37" t="s">
+        <v>43</v>
+      </c>
+      <c r="U37" t="s">
+        <v>44</v>
+      </c>
+      <c r="V37" t="s">
+        <v>45</v>
+      </c>
+      <c r="W37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>1.3222192947339193</v>
+      </c>
+      <c r="B38">
+        <v>21</v>
+      </c>
+      <c r="C38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" t="s">
+        <v>30</v>
+      </c>
+      <c r="F38" t="s">
+        <v>30</v>
+      </c>
+      <c r="G38" t="s">
+        <v>31</v>
+      </c>
+      <c r="H38" t="s">
+        <v>31</v>
+      </c>
+      <c r="I38" t="s">
+        <v>32</v>
+      </c>
+      <c r="J38" t="s">
+        <v>32</v>
+      </c>
+      <c r="K38" t="s">
+        <v>33</v>
+      </c>
+      <c r="L38" t="s">
+        <v>33</v>
+      </c>
+      <c r="M38" t="s">
+        <v>34</v>
+      </c>
+      <c r="N38" t="s">
+        <v>36</v>
+      </c>
+      <c r="O38" t="s">
+        <v>37</v>
+      </c>
+      <c r="P38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>47</v>
+      </c>
+      <c r="R38" t="s">
+        <v>41</v>
+      </c>
+      <c r="S38" t="s">
+        <v>42</v>
+      </c>
+      <c r="T38" t="s">
+        <v>43</v>
+      </c>
+      <c r="U38" t="s">
+        <v>44</v>
+      </c>
+      <c r="V38" t="s">
+        <v>45</v>
+      </c>
+      <c r="W38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>1.3222192947339193</v>
+      </c>
+      <c r="B39">
+        <v>21</v>
+      </c>
+      <c r="C39" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" t="s">
+        <v>30</v>
+      </c>
+      <c r="F39" t="s">
+        <v>30</v>
+      </c>
+      <c r="G39" t="s">
+        <v>31</v>
+      </c>
+      <c r="H39" t="s">
+        <v>31</v>
+      </c>
+      <c r="I39" t="s">
+        <v>32</v>
+      </c>
+      <c r="J39" t="s">
+        <v>32</v>
+      </c>
+      <c r="K39" t="s">
+        <v>33</v>
+      </c>
+      <c r="L39" t="s">
+        <v>33</v>
+      </c>
+      <c r="M39" t="s">
+        <v>34</v>
+      </c>
+      <c r="N39" t="s">
+        <v>36</v>
+      </c>
+      <c r="O39" t="s">
+        <v>37</v>
+      </c>
+      <c r="P39" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>47</v>
+      </c>
+      <c r="R39" t="s">
+        <v>41</v>
+      </c>
+      <c r="S39" t="s">
+        <v>42</v>
+      </c>
+      <c r="T39" t="s">
+        <v>43</v>
+      </c>
+      <c r="U39" t="s">
+        <v>44</v>
+      </c>
+      <c r="V39" t="s">
+        <v>45</v>
+      </c>
+      <c r="W39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>1.3222192947339193</v>
+      </c>
+      <c r="B40">
+        <v>21</v>
+      </c>
+      <c r="C40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" t="s">
+        <v>31</v>
+      </c>
+      <c r="F40" t="s">
+        <v>32</v>
+      </c>
+      <c r="G40" t="s">
+        <v>33</v>
+      </c>
+      <c r="H40" t="s">
+        <v>34</v>
+      </c>
+      <c r="I40" t="s">
+        <v>37</v>
+      </c>
+      <c r="J40" t="s">
+        <v>37</v>
+      </c>
+      <c r="K40" t="s">
+        <v>38</v>
+      </c>
+      <c r="L40" t="s">
+        <v>38</v>
+      </c>
+      <c r="M40" t="s">
+        <v>38</v>
+      </c>
+      <c r="N40" t="s">
+        <v>38</v>
+      </c>
+      <c r="O40" t="s">
+        <v>38</v>
+      </c>
+      <c r="P40" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>38</v>
+      </c>
+      <c r="R40" t="s">
+        <v>39</v>
+      </c>
+      <c r="S40" t="s">
+        <v>39</v>
+      </c>
+      <c r="T40" t="s">
+        <v>43</v>
+      </c>
+      <c r="U40" t="s">
+        <v>44</v>
+      </c>
+      <c r="V40" t="s">
+        <v>45</v>
+      </c>
+      <c r="W40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>1.3010299956639813</v>
+      </c>
+      <c r="B41">
+        <v>20</v>
+      </c>
+      <c r="C41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" t="s">
+        <v>12</v>
+      </c>
+      <c r="I41" t="s">
+        <v>13</v>
+      </c>
+      <c r="J41" t="s">
+        <v>14</v>
+      </c>
+      <c r="K41" t="s">
+        <v>15</v>
+      </c>
+      <c r="L41" t="s">
+        <v>16</v>
+      </c>
+      <c r="M41" t="s">
+        <v>17</v>
+      </c>
+      <c r="N41" t="s">
+        <v>18</v>
+      </c>
+      <c r="O41" t="s">
+        <v>19</v>
+      </c>
+      <c r="P41" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>21</v>
+      </c>
+      <c r="R41" t="s">
+        <v>22</v>
+      </c>
+      <c r="S41" t="s">
+        <v>23</v>
+      </c>
+      <c r="T41" t="s">
+        <v>24</v>
+      </c>
+      <c r="U41" t="s">
+        <v>25</v>
+      </c>
+      <c r="V41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>1.3010299956639813</v>
+      </c>
+      <c r="B42">
+        <v>20</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" t="s">
+        <v>13</v>
+      </c>
+      <c r="J42" t="s">
+        <v>14</v>
+      </c>
+      <c r="K42" t="s">
+        <v>15</v>
+      </c>
+      <c r="L42" t="s">
+        <v>16</v>
+      </c>
+      <c r="M42" t="s">
+        <v>17</v>
+      </c>
+      <c r="N42" t="s">
+        <v>18</v>
+      </c>
+      <c r="O42" t="s">
+        <v>19</v>
+      </c>
+      <c r="P42" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>21</v>
+      </c>
+      <c r="R42" t="s">
+        <v>22</v>
+      </c>
+      <c r="S42" t="s">
+        <v>23</v>
+      </c>
+      <c r="T42" t="s">
+        <v>24</v>
+      </c>
+      <c r="U42" t="s">
+        <v>25</v>
+      </c>
+      <c r="V42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>1.2304489213782739</v>
+      </c>
+      <c r="B43">
+        <v>17</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" t="s">
+        <v>17</v>
+      </c>
+      <c r="J43" t="s">
+        <v>18</v>
+      </c>
+      <c r="K43" t="s">
+        <v>19</v>
+      </c>
+      <c r="L43" t="s">
+        <v>20</v>
+      </c>
+      <c r="M43" t="s">
+        <v>21</v>
+      </c>
+      <c r="N43" t="s">
+        <v>22</v>
+      </c>
+      <c r="O43" t="s">
+        <v>23</v>
+      </c>
+      <c r="P43" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>25</v>
+      </c>
+      <c r="R43" t="s">
+        <v>26</v>
+      </c>
+      <c r="S43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>1.2304489213782739</v>
+      </c>
+      <c r="B44">
+        <v>17</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" t="s">
+        <v>16</v>
+      </c>
+      <c r="I44" t="s">
+        <v>17</v>
+      </c>
+      <c r="J44" t="s">
+        <v>18</v>
+      </c>
+      <c r="K44" t="s">
+        <v>19</v>
+      </c>
+      <c r="L44" t="s">
+        <v>20</v>
+      </c>
+      <c r="M44" t="s">
+        <v>21</v>
+      </c>
+      <c r="N44" t="s">
+        <v>22</v>
+      </c>
+      <c r="O44" t="s">
+        <v>23</v>
+      </c>
+      <c r="P44" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>25</v>
+      </c>
+      <c r="R44" t="s">
+        <v>26</v>
+      </c>
+      <c r="S44" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>1.2041199826559248</v>
+      </c>
+      <c r="B45">
+        <v>16</v>
+      </c>
+      <c r="C45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45" t="s">
+        <v>11</v>
+      </c>
+      <c r="I45" t="s">
+        <v>12</v>
+      </c>
+      <c r="J45" t="s">
+        <v>23</v>
+      </c>
+      <c r="K45" t="s">
+        <v>24</v>
+      </c>
+      <c r="L45" t="s">
+        <v>25</v>
+      </c>
+      <c r="M45" t="s">
+        <v>25</v>
+      </c>
+      <c r="N45" t="s">
+        <v>26</v>
+      </c>
+      <c r="O45" t="s">
+        <v>26</v>
+      </c>
+      <c r="P45" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>27</v>
+      </c>
+      <c r="R45" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>1.2041199826559248</v>
+      </c>
+      <c r="B46">
+        <v>16</v>
+      </c>
+      <c r="C46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" t="s">
+        <v>11</v>
+      </c>
+      <c r="I46" t="s">
+        <v>12</v>
+      </c>
+      <c r="J46" t="s">
+        <v>23</v>
+      </c>
+      <c r="K46" t="s">
+        <v>24</v>
+      </c>
+      <c r="L46" t="s">
+        <v>25</v>
+      </c>
+      <c r="M46" t="s">
+        <v>25</v>
+      </c>
+      <c r="N46" t="s">
+        <v>26</v>
+      </c>
+      <c r="O46" t="s">
+        <v>26</v>
+      </c>
+      <c r="P46" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>27</v>
+      </c>
+      <c r="R46" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="0"/>
+        <v>1.2041199826559248</v>
+      </c>
+      <c r="B47">
+        <v>16</v>
+      </c>
+      <c r="C47" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" t="s">
+        <v>5</v>
+      </c>
+      <c r="J47" t="s">
+        <v>5</v>
+      </c>
+      <c r="K47" t="s">
+        <v>6</v>
+      </c>
+      <c r="L47" t="s">
+        <v>6</v>
+      </c>
+      <c r="M47" t="s">
+        <v>7</v>
+      </c>
+      <c r="N47" t="s">
+        <v>8</v>
+      </c>
+      <c r="O47" t="s">
+        <v>25</v>
+      </c>
+      <c r="P47" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>27</v>
+      </c>
+      <c r="R47" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>1.2041199826559248</v>
+      </c>
+      <c r="B48">
+        <v>16</v>
+      </c>
+      <c r="C48" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" t="s">
+        <v>6</v>
+      </c>
+      <c r="L48" t="s">
+        <v>6</v>
+      </c>
+      <c r="M48" t="s">
+        <v>7</v>
+      </c>
+      <c r="N48" t="s">
+        <v>8</v>
+      </c>
+      <c r="O48" t="s">
+        <v>25</v>
+      </c>
+      <c r="P48" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>27</v>
+      </c>
+      <c r="R48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>1.2041199826559248</v>
+      </c>
+      <c r="B49">
+        <v>16</v>
+      </c>
+      <c r="C49" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" t="s">
+        <v>36</v>
+      </c>
+      <c r="E49" t="s">
+        <v>37</v>
+      </c>
+      <c r="F49" t="s">
+        <v>40</v>
+      </c>
+      <c r="G49" t="s">
+        <v>47</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>41</v>
+      </c>
+      <c r="J49" t="s">
+        <v>41</v>
+      </c>
+      <c r="K49" t="s">
+        <v>41</v>
+      </c>
+      <c r="L49" t="s">
+        <v>41</v>
+      </c>
+      <c r="M49" t="s">
+        <v>42</v>
+      </c>
+      <c r="N49" t="s">
+        <v>42</v>
+      </c>
+      <c r="O49" t="s">
+        <v>43</v>
+      </c>
+      <c r="P49" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>45</v>
+      </c>
+      <c r="R49" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="0"/>
+        <v>1.2041199826559248</v>
+      </c>
+      <c r="B50">
+        <v>16</v>
+      </c>
+      <c r="C50" t="s">
+        <v>35</v>
+      </c>
+      <c r="D50" t="s">
+        <v>36</v>
+      </c>
+      <c r="E50" t="s">
+        <v>37</v>
+      </c>
+      <c r="F50" t="s">
+        <v>40</v>
+      </c>
+      <c r="G50" t="s">
+        <v>47</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>41</v>
+      </c>
+      <c r="J50" t="s">
+        <v>41</v>
+      </c>
+      <c r="K50" t="s">
+        <v>41</v>
+      </c>
+      <c r="L50" t="s">
+        <v>41</v>
+      </c>
+      <c r="M50" t="s">
+        <v>42</v>
+      </c>
+      <c r="N50" t="s">
+        <v>42</v>
+      </c>
+      <c r="O50" t="s">
+        <v>43</v>
+      </c>
+      <c r="P50" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>45</v>
+      </c>
+      <c r="R50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="0"/>
+        <v>1.1760912590556813</v>
+      </c>
+      <c r="B51">
+        <v>15</v>
+      </c>
+      <c r="C51" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51" t="s">
+        <v>29</v>
+      </c>
+      <c r="E51" t="s">
+        <v>30</v>
+      </c>
+      <c r="F51" t="s">
+        <v>30</v>
+      </c>
+      <c r="G51" t="s">
+        <v>31</v>
+      </c>
+      <c r="H51" t="s">
+        <v>31</v>
+      </c>
+      <c r="I51" t="s">
+        <v>32</v>
+      </c>
+      <c r="J51" t="s">
+        <v>32</v>
+      </c>
+      <c r="K51" t="s">
+        <v>33</v>
+      </c>
+      <c r="L51" t="s">
+        <v>37</v>
+      </c>
+      <c r="M51" t="s">
+        <v>38</v>
+      </c>
+      <c r="N51" t="s">
+        <v>38</v>
+      </c>
+      <c r="O51" t="s">
+        <v>38</v>
+      </c>
+      <c r="P51" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="0"/>
+        <v>1.146128035678238</v>
+      </c>
+      <c r="B52">
+        <v>14</v>
+      </c>
+      <c r="C52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" t="s">
+        <v>15</v>
+      </c>
+      <c r="G52" t="s">
+        <v>16</v>
+      </c>
+      <c r="H52" t="s">
+        <v>17</v>
+      </c>
+      <c r="I52" t="s">
+        <v>18</v>
+      </c>
+      <c r="J52" t="s">
+        <v>19</v>
+      </c>
+      <c r="K52" t="s">
+        <v>21</v>
+      </c>
+      <c r="L52" t="s">
+        <v>22</v>
+      </c>
+      <c r="M52" t="s">
+        <v>23</v>
+      </c>
+      <c r="N52" t="s">
+        <v>24</v>
+      </c>
+      <c r="O52" t="s">
+        <v>25</v>
+      </c>
+      <c r="P52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="0"/>
+        <v>1.146128035678238</v>
+      </c>
+      <c r="B53">
+        <v>14</v>
+      </c>
+      <c r="C53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H53" t="s">
+        <v>17</v>
+      </c>
+      <c r="I53" t="s">
+        <v>18</v>
+      </c>
+      <c r="J53" t="s">
+        <v>19</v>
+      </c>
+      <c r="K53" t="s">
+        <v>21</v>
+      </c>
+      <c r="L53" t="s">
+        <v>22</v>
+      </c>
+      <c r="M53" t="s">
+        <v>23</v>
+      </c>
+      <c r="N53" t="s">
+        <v>24</v>
+      </c>
+      <c r="O53" t="s">
+        <v>25</v>
+      </c>
+      <c r="P53" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="shared" si="0"/>
+        <v>1.1139433523068367</v>
+      </c>
+      <c r="B54">
+        <v>13</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54" t="s">
+        <v>2</v>
+      </c>
+      <c r="F54" t="s">
+        <v>2</v>
+      </c>
+      <c r="G54" t="s">
+        <v>3</v>
+      </c>
+      <c r="H54" t="s">
+        <v>3</v>
+      </c>
+      <c r="I54" t="s">
+        <v>3</v>
+      </c>
+      <c r="J54" t="s">
+        <v>27</v>
+      </c>
+      <c r="K54" t="s">
+        <v>27</v>
+      </c>
+      <c r="L54" t="s">
+        <v>27</v>
+      </c>
+      <c r="M54" t="s">
+        <v>27</v>
+      </c>
+      <c r="N54" t="s">
         <v>28</v>
       </c>
+      <c r="O54" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f t="shared" si="0"/>
+        <v>1.1139433523068367</v>
+      </c>
+      <c r="B55">
+        <v>13</v>
+      </c>
+      <c r="C55" t="s">
+        <v>35</v>
+      </c>
+      <c r="D55" t="s">
+        <v>40</v>
+      </c>
+      <c r="E55" t="s">
+        <v>47</v>
+      </c>
+      <c r="F55" t="s">
+        <v>47</v>
+      </c>
+      <c r="G55" t="s">
+        <v>47</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>41</v>
+      </c>
+      <c r="J55" t="s">
+        <v>41</v>
+      </c>
+      <c r="K55" t="s">
+        <v>42</v>
+      </c>
+      <c r="L55" t="s">
+        <v>43</v>
+      </c>
+      <c r="M55" t="s">
+        <v>44</v>
+      </c>
+      <c r="N55" t="s">
+        <v>45</v>
+      </c>
+      <c r="O55" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f t="shared" si="0"/>
+        <v>1.1139433523068367</v>
+      </c>
+      <c r="B56">
+        <v>13</v>
+      </c>
+      <c r="C56" t="s">
+        <v>35</v>
+      </c>
+      <c r="D56" t="s">
+        <v>40</v>
+      </c>
+      <c r="E56" t="s">
+        <v>47</v>
+      </c>
+      <c r="F56" t="s">
+        <v>47</v>
+      </c>
+      <c r="G56" t="s">
+        <v>47</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>41</v>
+      </c>
+      <c r="J56" t="s">
+        <v>41</v>
+      </c>
+      <c r="K56" t="s">
+        <v>42</v>
+      </c>
+      <c r="L56" t="s">
+        <v>43</v>
+      </c>
+      <c r="M56" t="s">
+        <v>44</v>
+      </c>
+      <c r="N56" t="s">
+        <v>45</v>
+      </c>
+      <c r="O56" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" si="0"/>
+        <v>1.0791812460476249</v>
+      </c>
+      <c r="B57">
+        <v>12</v>
+      </c>
+      <c r="C57" t="s">
+        <v>35</v>
+      </c>
+      <c r="D57" t="s">
+        <v>36</v>
+      </c>
+      <c r="E57" t="s">
+        <v>40</v>
+      </c>
+      <c r="F57" t="s">
+        <v>40</v>
+      </c>
+      <c r="G57" t="s">
+        <v>47</v>
+      </c>
+      <c r="H57" t="s">
+        <v>41</v>
+      </c>
+      <c r="I57" t="s">
+        <v>41</v>
+      </c>
+      <c r="J57" t="s">
+        <v>42</v>
+      </c>
+      <c r="K57" t="s">
+        <v>43</v>
+      </c>
+      <c r="L57" t="s">
+        <v>44</v>
+      </c>
+      <c r="M57" t="s">
+        <v>45</v>
+      </c>
+      <c r="N57" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" si="0"/>
+        <v>1.0791812460476249</v>
+      </c>
+      <c r="B58">
+        <v>12</v>
+      </c>
+      <c r="C58" t="s">
+        <v>35</v>
+      </c>
+      <c r="D58" t="s">
+        <v>36</v>
+      </c>
+      <c r="E58" t="s">
+        <v>40</v>
+      </c>
+      <c r="F58" t="s">
+        <v>40</v>
+      </c>
+      <c r="G58" t="s">
+        <v>47</v>
+      </c>
+      <c r="H58" t="s">
+        <v>41</v>
+      </c>
+      <c r="I58" t="s">
+        <v>41</v>
+      </c>
+      <c r="J58" t="s">
+        <v>42</v>
+      </c>
+      <c r="K58" t="s">
+        <v>43</v>
+      </c>
+      <c r="L58" t="s">
+        <v>44</v>
+      </c>
+      <c r="M58" t="s">
+        <v>45</v>
+      </c>
+      <c r="N58" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" si="0"/>
+        <v>1.0791812460476249</v>
+      </c>
+      <c r="B59">
+        <v>12</v>
+      </c>
+      <c r="C59" t="s">
         <v>29</v>
       </c>
+      <c r="D59" t="s">
+        <v>30</v>
+      </c>
+      <c r="E59" t="s">
+        <v>31</v>
+      </c>
+      <c r="F59" t="s">
+        <v>32</v>
+      </c>
+      <c r="G59" t="s">
+        <v>33</v>
+      </c>
+      <c r="H59" t="s">
+        <v>34</v>
+      </c>
+      <c r="I59" t="s">
+        <v>37</v>
+      </c>
+      <c r="J59" t="s">
+        <v>38</v>
+      </c>
+      <c r="K59" t="s">
+        <v>43</v>
+      </c>
+      <c r="L59" t="s">
+        <v>44</v>
+      </c>
+      <c r="M59" t="s">
+        <v>45</v>
+      </c>
+      <c r="N59" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" si="0"/>
+        <v>1.0791812460476249</v>
+      </c>
+      <c r="B60">
+        <v>12</v>
+      </c>
+      <c r="C60" t="s">
+        <v>29</v>
+      </c>
+      <c r="D60" t="s">
         <v>30</v>
       </c>
+      <c r="E60" t="s">
+        <v>31</v>
+      </c>
+      <c r="F60" t="s">
+        <v>32</v>
+      </c>
+      <c r="G60" t="s">
+        <v>33</v>
+      </c>
+      <c r="H60" t="s">
+        <v>34</v>
+      </c>
+      <c r="I60" t="s">
+        <v>37</v>
+      </c>
+      <c r="J60" t="s">
+        <v>38</v>
+      </c>
+      <c r="K60" t="s">
+        <v>43</v>
+      </c>
+      <c r="L60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M60" t="s">
+        <v>45</v>
+      </c>
+      <c r="N60" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f t="shared" si="0"/>
+        <v>1.0413926851582251</v>
+      </c>
+      <c r="B61">
+        <v>11</v>
+      </c>
+      <c r="C61" t="s">
+        <v>29</v>
+      </c>
+      <c r="D61" t="s">
+        <v>29</v>
+      </c>
+      <c r="E61" t="s">
+        <v>30</v>
+      </c>
+      <c r="F61" t="s">
+        <v>30</v>
+      </c>
+      <c r="G61" t="s">
         <v>31</v>
       </c>
+      <c r="H61" t="s">
+        <v>31</v>
+      </c>
+      <c r="I61" t="s">
+        <v>32</v>
+      </c>
+      <c r="J61" t="s">
+        <v>32</v>
+      </c>
+      <c r="K61" t="s">
+        <v>33</v>
+      </c>
+      <c r="L61" t="s">
+        <v>37</v>
+      </c>
+      <c r="M61" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f t="shared" si="0"/>
+        <v>1.0413926851582251</v>
+      </c>
+      <c r="B62">
+        <v>11</v>
+      </c>
+      <c r="C62" t="s">
+        <v>29</v>
+      </c>
+      <c r="D62" t="s">
+        <v>29</v>
+      </c>
+      <c r="E62" t="s">
+        <v>30</v>
+      </c>
+      <c r="F62" t="s">
+        <v>30</v>
+      </c>
+      <c r="G62" t="s">
+        <v>31</v>
+      </c>
+      <c r="H62" t="s">
+        <v>31</v>
+      </c>
+      <c r="I62" t="s">
         <v>32</v>
       </c>
+      <c r="J62" t="s">
+        <v>32</v>
+      </c>
+      <c r="K62" t="s">
+        <v>33</v>
+      </c>
+      <c r="L62" t="s">
+        <v>37</v>
+      </c>
+      <c r="M62" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f t="shared" si="0"/>
+        <v>1.0413926851582251</v>
+      </c>
+      <c r="B63">
+        <v>11</v>
+      </c>
+      <c r="C63" t="s">
+        <v>29</v>
+      </c>
+      <c r="D63" t="s">
+        <v>29</v>
+      </c>
+      <c r="E63" t="s">
+        <v>30</v>
+      </c>
+      <c r="F63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G63" t="s">
+        <v>31</v>
+      </c>
+      <c r="H63" t="s">
+        <v>31</v>
+      </c>
+      <c r="I63" t="s">
+        <v>32</v>
+      </c>
+      <c r="J63" t="s">
+        <v>32</v>
+      </c>
+      <c r="K63" t="s">
         <v>33</v>
       </c>
+      <c r="L63" t="s">
+        <v>33</v>
+      </c>
+      <c r="M63" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f t="shared" si="0"/>
+        <v>1.0413926851582251</v>
+      </c>
+      <c r="B64">
+        <v>11</v>
+      </c>
+      <c r="C64" t="s">
+        <v>29</v>
+      </c>
+      <c r="D64" t="s">
+        <v>29</v>
+      </c>
+      <c r="E64" t="s">
+        <v>30</v>
+      </c>
+      <c r="F64" t="s">
+        <v>30</v>
+      </c>
+      <c r="G64" t="s">
+        <v>31</v>
+      </c>
+      <c r="H64" t="s">
+        <v>31</v>
+      </c>
+      <c r="I64" t="s">
+        <v>32</v>
+      </c>
+      <c r="J64" t="s">
+        <v>32</v>
+      </c>
+      <c r="K64" t="s">
+        <v>33</v>
+      </c>
+      <c r="L64" t="s">
+        <v>33</v>
+      </c>
+      <c r="M64" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
-      <c r="AD19" s="1"/>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="1"/>
-      <c r="AB20" s="1"/>
-      <c r="AC20" s="1"/>
-      <c r="AD20" s="1"/>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="1"/>
-      <c r="AA21" s="1"/>
-      <c r="AB21" s="1"/>
-      <c r="AC21" s="1"/>
-      <c r="AD21" s="1"/>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
-      <c r="AA22" s="1"/>
-      <c r="AB22" s="1"/>
-      <c r="AC22" s="1"/>
-      <c r="AD22" s="1"/>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
-      <c r="AA23" s="1"/>
-      <c r="AB23" s="1"/>
-      <c r="AC23" s="1"/>
-      <c r="AD23" s="1"/>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="B24" t="s">
-        <v>40</v>
-      </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
-      <c r="AA24" s="1"/>
-      <c r="AB24" s="1"/>
-      <c r="AC24" s="1"/>
-      <c r="AD24" s="1"/>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>1</v>
-      </c>
-      <c r="B25" t="s">
-        <v>41</v>
-      </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
-      <c r="AA25" s="1"/>
-      <c r="AB25" s="1"/>
-      <c r="AC25" s="1"/>
-      <c r="AD25" s="1"/>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
-        <v>42</v>
-      </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-      <c r="X26" s="1"/>
-      <c r="Y26" s="1"/>
-      <c r="Z26" s="1"/>
-      <c r="AA26" s="1"/>
-      <c r="AB26" s="1"/>
-      <c r="AC26" s="1"/>
-      <c r="AD26" s="1"/>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>1</v>
-      </c>
-      <c r="B27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
-      <c r="AA27" s="1"/>
-      <c r="AB27" s="1"/>
-      <c r="AC27" s="1"/>
-      <c r="AD27" s="1"/>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28" t="s">
-        <v>44</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1"/>
-      <c r="X28" s="1"/>
-      <c r="Y28" s="1"/>
-      <c r="Z28" s="1"/>
-      <c r="AA28" s="1"/>
-      <c r="AB28" s="1"/>
-      <c r="AC28" s="1"/>
-      <c r="AD28" s="1"/>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>1</v>
-      </c>
-      <c r="B29" t="s">
-        <v>45</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
-      <c r="W29" s="1"/>
-      <c r="X29" s="1"/>
-      <c r="Y29" s="1"/>
-      <c r="Z29" s="1"/>
-      <c r="AA29" s="1"/>
-      <c r="AB29" s="1"/>
-      <c r="AC29" s="1"/>
-      <c r="AD29" s="1"/>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>1</v>
-      </c>
-      <c r="B30" t="s">
-        <v>46</v>
-      </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
-      <c r="X30" s="1"/>
-      <c r="Y30" s="1"/>
-      <c r="Z30" s="1"/>
-      <c r="AA30" s="1"/>
-      <c r="AB30" s="1"/>
-      <c r="AC30" s="1"/>
-      <c r="AD30" s="1"/>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>1</v>
-      </c>
-      <c r="B31" t="s">
-        <v>47</v>
-      </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
-      <c r="X31" s="1"/>
-      <c r="Y31" s="1"/>
-      <c r="Z31" s="1"/>
-      <c r="AA31" s="1"/>
-      <c r="AB31" s="1"/>
-      <c r="AC31" s="1"/>
-      <c r="AD31" s="1"/>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="B32" t="s">
-        <v>48</v>
-      </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
-      <c r="X32" s="1"/>
-      <c r="Y32" s="1"/>
-      <c r="Z32" s="1"/>
-      <c r="AA32" s="1"/>
-      <c r="AB32" s="1"/>
-      <c r="AC32" s="1"/>
-      <c r="AD32" s="1"/>
-    </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>1</v>
-      </c>
-      <c r="B33" t="s">
-        <v>49</v>
-      </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
-      <c r="X33" s="1"/>
-      <c r="Y33" s="1"/>
-      <c r="Z33" s="1"/>
-      <c r="AA33" s="1"/>
-      <c r="AB33" s="1"/>
-      <c r="AC33" s="1"/>
-      <c r="AD33" s="1"/>
-    </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
-      <c r="W34" s="1"/>
-      <c r="X34" s="1"/>
-      <c r="Y34" s="1"/>
-      <c r="Z34" s="1"/>
-      <c r="AA34" s="1"/>
-      <c r="AB34" s="1"/>
-      <c r="AC34" s="1"/>
-      <c r="AD34" s="1"/>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
-      <c r="W35" s="1"/>
-      <c r="X35" s="1"/>
-      <c r="Y35" s="1"/>
-      <c r="Z35" s="1"/>
-      <c r="AA35" s="1"/>
-      <c r="AB35" s="1"/>
-      <c r="AC35" s="1"/>
-      <c r="AD35" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
